--- a/data/trans_dic/EXP_TABACO-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/EXP_TABACO-Estudios-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda</t>
+          <t>Exposición pasiva al tabaco en la vivienda (tasa de respuesta: 97,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1262,7 +1262,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda</t>
+          <t>Exposición pasiva al tabaco en la vivienda (tasa de respuesta: 97,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/EXP_TABACO-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/EXP_TABACO-Estudios-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,21; 14,55</t>
+          <t>6,39; 15,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,73; 19,63</t>
+          <t>9,86; 20,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,84; 38,22</t>
+          <t>17,67; 38,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,22; 10,62</t>
+          <t>6,7; 15,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,07; 16,4</t>
+          <t>9,87; 16,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,31; 27,46</t>
+          <t>13,19; 27,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,2; 10,73</t>
+          <t>7,47; 13,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,83; 16,25</t>
+          <t>10,78; 16,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,91; 30,01</t>
+          <t>17,45; 30,3</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,02; 18,39</t>
+          <t>13,5; 17,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,81; 57,63</t>
+          <t>12,75; 64,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,47; 33,29</t>
+          <t>26,03; 32,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,25; 16,21</t>
+          <t>11,85; 16,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,97; 17,53</t>
+          <t>8,2; 17,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,16; 31,01</t>
+          <t>23,65; 30,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,64; 16,76</t>
+          <t>13,38; 16,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,14; 43,45</t>
+          <t>13,01; 44,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,09; 30,73</t>
+          <t>26,03; 30,85</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,07; 12,74</t>
+          <t>7,52; 14,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,23; 15,81</t>
+          <t>8,41; 16,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,6; 25,88</t>
+          <t>17,53; 25,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,35; 16,02</t>
+          <t>9,02; 15,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,18; 15,27</t>
+          <t>9,02; 15,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,38; 21,88</t>
+          <t>15,24; 21,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,79; 13,88</t>
+          <t>9,05; 13,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,34; 14,25</t>
+          <t>9,41; 14,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,24; 22,1</t>
+          <t>17,18; 22,21</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,23; 15,43</t>
+          <t>11,99; 15,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,47; 49,48</t>
+          <t>12,61; 48,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,2; 29,33</t>
+          <t>24,08; 29,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,48; 14,38</t>
+          <t>11,18; 14,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,37; 15,54</t>
+          <t>9,35; 15,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,54; 25,16</t>
+          <t>20,42; 25,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,13; 14,44</t>
+          <t>11,99; 14,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,56; 33,47</t>
+          <t>12,62; 36,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,86; 26,4</t>
+          <t>22,78; 26,22</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4018</t>
+          <t>7680</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>11902</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9253</t>
+          <t>19582</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -1520,12 +1520,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2613; 6127</t>
+          <t>4667; 11469</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19051; 38432</t>
+          <t>19310; 39365</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1535,17 +1535,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14284; 28976</t>
+          <t>13399; 29350</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3636; 7400</t>
+          <t>7793; 17954</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32894; 53549</t>
+          <t>32214; 53204</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1555,17 +1555,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10434; 23275</t>
+          <t>11181; 23179</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6935; 11990</t>
+          <t>14148; 26178</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>56561; 84882</t>
+          <t>56317; 84089</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>28769; 48197</t>
+          <t>28019; 48655</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>36662</t>
+          <t>72987</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>33083</t>
+          <t>63529</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>69745</t>
+          <t>136515</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1728,12 +1728,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32026; 42013</t>
+          <t>63071; 84001</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>168873; 759497</t>
+          <t>167989; 847185</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90890; 114299</t>
+          <t>89385; 112726</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28615; 37859</t>
+          <t>53477; 76041</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>104983; 230979</t>
+          <t>107978; 229742</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1763,17 +1763,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>82945; 106447</t>
+          <t>81181; 103903</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63036; 77436</t>
+          <t>122828; 154209</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>346136; 1144908</t>
+          <t>342813; 1183943</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>179147; 210992</t>
+          <t>178743; 211788</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7843</t>
+          <t>21158</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14249</t>
+          <t>29450</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22092</t>
+          <t>50608</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1936,12 +1936,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5778; 10410</t>
+          <t>15488; 29762</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>35513; 68200</t>
+          <t>36292; 69187</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1951,17 +1951,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>38514; 56642</t>
+          <t>38374; 55872</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11170; 17297</t>
+          <t>22773; 37956</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>38244; 63620</t>
+          <t>37550; 63930</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1971,17 +1971,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>42843; 60962</t>
+          <t>42460; 60487</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18572; 26323</t>
+          <t>41470; 62736</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>79191; 120784</t>
+          <t>79744; 120866</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>85781; 109964</t>
+          <t>85488; 110469</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>48523</t>
+          <t>101824</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>52566</t>
+          <t>104880</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>101089</t>
+          <t>206705</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>43062; 54340</t>
+          <t>89490; 116897</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>242597; 962413</t>
+          <t>245237; 950786</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,17 +2159,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>154407; 187132</t>
+          <t>153653; 186549</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47220; 59144</t>
+          <t>91623; 120277</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>193143; 320234</t>
+          <t>192677; 322489</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2179,17 +2179,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>145158; 177779</t>
+          <t>144285; 177253</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>92573; 110253</t>
+          <t>187686; 227284</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>503006; 1340548</t>
+          <t>505390; 1480684</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>307391; 354929</t>
+          <t>306351; 352621</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/EXP_TABACO-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/EXP_TABACO-Estudios-trans_dic.xlsx
@@ -569,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -657,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>13,74%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>27,39%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23,73%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>10,52%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>14,14%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>23,73%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>27,39%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>12,56%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19,19%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10,32%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>10,23%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>12,87%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>10,32%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>19,19%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23,06%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16,46%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>10,34%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>13,35%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>16,46%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>23,06%</t>
         </is>
       </c>
     </row>
@@ -725,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>9,8; 19,88</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17,67; 38,71</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19,76; 28,21</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>6,39; 15,71</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>9,86; 20,1</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>19,76; 28,21</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>17,67; 38,71</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>9,79; 16,12</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>13,19; 27,34</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7,98; 12,97</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>6,7; 15,43</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>9,87; 16,29</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>7,98; 12,97</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>13,19; 27,34</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>10,53; 15,9</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>17,45; 30,3</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>14,08; 18,91</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>7,47; 13,82</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>10,78; 16,1</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>14,08; 18,91</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>17,45; 30,3</t>
         </is>
       </c>
     </row>
@@ -797,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>13,51%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>29,62%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21,32%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>15,62%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>29,77%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>21,32%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>29,62%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>16,58%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27,3%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>14,08%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>13,9%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>21,22%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>27,3%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>28,46%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21,27%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>14,87%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>21,84%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>21,27%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>28,46%</t>
         </is>
       </c>
     </row>
@@ -865,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>11,17; 16,29</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26,03; 32,83</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19,23; 23,58</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>13,5; 17,98</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>12,75; 64,29</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>19,23; 23,58</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>26,03; 32,83</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>14,61; 18,61</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>23,65; 30,27</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>18,88; 23,63</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>11,85; 16,86</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>8,2; 17,44</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>18,88; 23,63</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>23,65; 30,27</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>13,4; 16,76</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>26,03; 30,85</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>19,76; 22,97</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>13,38; 16,79</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>13,01; 44,93</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>19,76; 22,97</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>26,03; 30,85</t>
         </is>
       </c>
     </row>
@@ -937,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>11,22%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21,34%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11,52%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>10,28%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>11,69%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>11,52%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>21,34%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>11,48%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>18,33%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11,47%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>11,67%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>11,83%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>11,47%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>18,33%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>11,35%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>19,65%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11,5%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>11,04%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>11,76%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>11,5%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>19,65%</t>
         </is>
       </c>
     </row>
@@ -1005,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>7,99; 15,15</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17,53; 25,53</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8,98; 14,44</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>7,52; 14,46</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>8,41; 16,04</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>8,98; 14,44</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>17,53; 25,53</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>8,88; 14,64</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>15,24; 21,71</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9,05; 14,39</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>9,02; 15,04</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>9,02; 15,35</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>9,05; 14,39</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>15,24; 21,71</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>9,18; 13,8</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17,18; 22,21</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9,69; 13,55</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>9,05; 13,69</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>9,41; 14,25</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>9,69; 13,55</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>17,18; 22,21</t>
         </is>
       </c>
     </row>
@@ -1077,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>12,95%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26,52%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19,07%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>13,65%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>24,19%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>19,07%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>26,52%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>14,69%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22,79%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16,52%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>12,79%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>13,32%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>16,52%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>22,79%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>13,85%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>24,56%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>17,78%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>13,2%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>18,6%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>17,78%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>24,56%</t>
         </is>
       </c>
     </row>
@@ -1145,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>11,25; 15,14</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24,08; 29,24</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17,44; 20,61</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>11,99; 15,67</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>12,61; 48,88</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>17,44; 20,61</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>24,08; 29,24</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>13,16; 16,28</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>20,42; 25,08</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14,92; 18,07</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>11,18; 14,67</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>9,35; 15,65</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>14,92; 18,07</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>20,42; 25,08</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>12,76; 15,16</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>22,78; 26,22</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16,67; 18,95</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>11,99; 14,51</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>12,62; 36,97</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>16,67; 18,95</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>22,78; 26,22</t>
         </is>
       </c>
     </row>
@@ -1296,62 +1296,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -1384,62 +1384,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>56</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>90</t>
         </is>
       </c>
     </row>
@@ -1452,62 +1452,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>30157</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20768</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>49940</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>7680</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>27693</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>49940</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>20768</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>44868</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16266</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>25730</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>11902</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>42038</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>25730</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>16266</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>75025</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>37034</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>75669</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>19582</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>69731</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>75669</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>37034</t>
         </is>
       </c>
     </row>
@@ -1520,62 +1520,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>21499; 43612</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13399; 29350</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>41586; 59357</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>4667; 11469</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>19310; 39365</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>41586; 59357</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>13399; 29350</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>34949; 57560</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11181; 23179</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19891; 32350</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>7793; 17954</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>32214; 53204</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>19891; 32350</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>11181; 23179</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>60707; 91662</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>28019; 48655</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>64730; 86942</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>14148; 26178</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>56317; 84089</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>64730; 86942</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>28019; 48655</t>
         </is>
       </c>
     </row>
@@ -1592,62 +1592,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>211</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>403</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>363</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>583</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>434</t>
         </is>
       </c>
     </row>
@@ -1660,62 +1660,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>159612</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>101713</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>170520</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>72987</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>392352</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>170520</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>101713</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>197809</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>93689</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>162183</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>63529</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>183161</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>162183</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>93689</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>357421</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>195402</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>332703</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>136515</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>575513</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>332703</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>195402</t>
         </is>
       </c>
     </row>
@@ -1728,62 +1728,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>131972; 192533</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>89385; 112726</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>153771; 188592</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>63071; 84001</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>167989; 847185</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>153771; 188592</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>89385; 112726</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>174372; 222038</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>81181; 103903</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>144315; 180598</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>53477; 76041</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>107978; 229742</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>144315; 180598</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>81181; 103903</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>318193; 397950</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>178743; 211788</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>309086; 359228</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>122828; 154209</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>342813; 1183943</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>309086; 359228</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>178743; 211788</t>
         </is>
       </c>
     </row>
@@ -1800,62 +1800,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>48</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>79</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>127</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>250</t>
         </is>
       </c>
     </row>
@@ -1868,62 +1868,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>53517</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>46703</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>42490</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>21158</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>50410</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>42490</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>46703</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>53571</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>51061</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>46391</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>29450</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>49276</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>46391</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>51061</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>107088</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>97764</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>88881</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>50608</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>99687</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>88881</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>97764</t>
         </is>
       </c>
     </row>
@@ -1936,62 +1936,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>38083; 72267</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>38374; 55872</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>33120; 53244</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>15488; 29762</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>36292; 69187</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>33120; 53244</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>38374; 55872</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>41433; 68276</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>42460; 60487</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>36585; 58189</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>22773; 37956</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>37550; 63930</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>36585; 58189</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>42460; 60487</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>86557; 130196</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>85488; 110469</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>74911; 104732</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>41470; 62736</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>79744; 120866</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>74911; 104732</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>85488; 110469</t>
         </is>
       </c>
     </row>
@@ -2008,62 +2008,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>283</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>481</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>381</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>303</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>373</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>412</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>393</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>586</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>563</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>893</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>774</t>
         </is>
       </c>
     </row>
@@ -2076,62 +2076,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>243286</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>169184</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>262950</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>101824</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>470455</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>262950</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>169184</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>296248</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>161016</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>234304</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>104880</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>274475</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>234304</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>161016</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>539534</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>330200</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>497253</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>206705</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>744930</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>497253</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>330200</t>
         </is>
       </c>
     </row>
@@ -2144,62 +2144,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>211313; 284364</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>153653; 186549</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>240544; 284229</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>89490; 116897</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>245237; 950786</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>240544; 284229</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>153653; 186549</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>265322; 328430</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>144285; 177253</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>211530; 256290</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>91623; 120277</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>192677; 322489</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>211530; 256290</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>144285; 177253</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>497140; 590625</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>306351; 352621</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>466287; 529950</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>187686; 227284</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>505390; 1480684</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>466287; 529950</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>306351; 352621</t>
         </is>
       </c>
     </row>
